--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,14 +501,74 @@
           <t>Prakash</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="B5" t="n">
+        <v>101</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>17:50:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>101</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:01:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>101</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:14:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>101</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>18:18:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Kolass</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18:18:46</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,114 +461,69 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:48:29</t>
+          <t>21:40:49</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kolass</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:49:08</t>
+          <t>21:41:06</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mary</t>
+          <t>Prakash</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:49:28</t>
+          <t>21:42:52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prakash</t>
+          <t>Kolass</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:50:30</t>
+          <t>21:43:04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prakash</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>101</v>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:01:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Prakash</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>101</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18:14:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Prakash</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>101</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>18:18:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kolass</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>18:18:46</t>
+          <t>21:43:04</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="2025-02-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-03-08" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,4 +531,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>101</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15:44:14</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="2025-02-28" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2025-03-08" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2025-03-10" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -599,4 +600,102 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Roll Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>101</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kolass</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10:58:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kolass</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>103</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prakash</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:58:53</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>